--- a/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD281C7-05FE-4C08-8ACC-88578C83D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF104BB-C1C8-4CB7-8E67-3E24F1FE4091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B3B9A4-3956-44B5-9A7A-5E2BA73C70B8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6D374D2-03C1-4D4F-A1E9-BE6B9B9C61D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>9,66%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>90,34%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,31 +143,28 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>6,75%</t>
+    <t>6,51%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>5,56%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>93,25%</t>
+    <t>93,49%</t>
   </si>
   <si>
     <t>95,59%</t>
@@ -176,19 +173,16 @@
     <t>96,03%</t>
   </si>
   <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>94,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,757 +191,745 @@
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,5%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>87,26%</t>
   </si>
   <si>
-    <t>90,67%</t>
+    <t>90,38%</t>
   </si>
   <si>
     <t>86,25%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
   </si>
   <si>
     <t>84,82%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140BAA8C-646B-4FC7-9DAE-38972DAAA483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73297224-FACB-4830-BA4B-708526892C1F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1671,10 +1653,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,13 +1671,13 @@
         <v>1602012</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1496</v>
@@ -1704,13 +1686,13 @@
         <v>1524596</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3061</v>
@@ -1719,13 +1701,13 @@
         <v>3126608</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,7 +1763,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1793,13 +1775,13 @@
         <v>47605</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -1808,13 +1790,13 @@
         <v>36986</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -1823,13 +1805,13 @@
         <v>84591</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,13 +1826,13 @@
         <v>503803</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>415</v>
@@ -1859,13 +1841,13 @@
         <v>439426</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>898</v>
@@ -1874,13 +1856,13 @@
         <v>943229</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1930,13 @@
         <v>238649</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>284</v>
@@ -1963,13 +1945,13 @@
         <v>296132</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>511</v>
@@ -1978,13 +1960,13 @@
         <v>534781</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +1981,13 @@
         <v>3037895</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3013</v>
@@ -2014,28 +1996,28 @@
         <v>3083066</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6000</v>
       </c>
       <c r="N14" s="7">
-        <v>6120959</v>
+        <v>6120960</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2091,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A74228-5A7C-4C7D-BA6B-E50DE65E9501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2131244F-33CB-4A44-BF48-970D61856767}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2234,13 +2216,13 @@
         <v>104342</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -2249,13 +2231,13 @@
         <v>218922</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>300</v>
@@ -2264,13 +2246,13 @@
         <v>323264</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2267,13 @@
         <v>870301</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1043</v>
@@ -2300,13 +2282,13 @@
         <v>1118874</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1855</v>
@@ -2315,13 +2297,13 @@
         <v>1989176</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2371,13 @@
         <v>120692</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -2404,13 +2386,13 @@
         <v>81277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -2419,13 +2401,13 @@
         <v>201969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2422,13 @@
         <v>1843265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1563</v>
@@ -2455,13 +2437,13 @@
         <v>1676526</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>3310</v>
@@ -2470,13 +2452,13 @@
         <v>3519791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,7 +2514,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2544,13 +2526,13 @@
         <v>57980</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2559,13 +2541,13 @@
         <v>50777</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -2574,13 +2556,13 @@
         <v>108758</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2577,13 @@
         <v>423201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>367</v>
@@ -2610,13 +2592,13 @@
         <v>407854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>752</v>
@@ -2625,13 +2607,13 @@
         <v>831054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2681,13 @@
         <v>283015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>321</v>
@@ -2714,13 +2696,13 @@
         <v>350977</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>579</v>
@@ -2729,13 +2711,13 @@
         <v>633991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2732,13 @@
         <v>3136767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2973</v>
@@ -2765,13 +2747,13 @@
         <v>3203253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>5917</v>
@@ -2780,13 +2762,13 @@
         <v>6340021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FA08E2-7CCE-4518-844B-42086082C0C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880E8D34-8FC2-4947-96E1-8221824A46D6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2967,13 @@
         <v>126521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>171</v>
@@ -3000,13 +2982,13 @@
         <v>202789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>302</v>
@@ -3015,13 +2997,13 @@
         <v>329310</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3018,13 @@
         <v>627826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>721</v>
@@ -3051,13 +3033,13 @@
         <v>791871</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1352</v>
@@ -3066,13 +3048,13 @@
         <v>1419697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3122,13 @@
         <v>201687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3155,13 +3137,13 @@
         <v>192554</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>359</v>
@@ -3170,13 +3152,13 @@
         <v>394241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3173,13 @@
         <v>1874698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1736</v>
@@ -3206,13 +3188,13 @@
         <v>1795746</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3501</v>
@@ -3221,13 +3203,13 @@
         <v>3670444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3265,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3295,13 +3277,13 @@
         <v>97021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -3310,13 +3292,13 @@
         <v>70275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -3325,13 +3307,13 @@
         <v>167296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3328,13 @@
         <v>449865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>462</v>
@@ -3361,13 +3343,13 @@
         <v>478865</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>877</v>
@@ -3376,13 +3358,13 @@
         <v>928730</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3432,13 @@
         <v>425229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>407</v>
@@ -3465,13 +3447,13 @@
         <v>465618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>811</v>
@@ -3480,13 +3462,13 @@
         <v>890847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3483,13 @@
         <v>2952389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2919</v>
@@ -3516,13 +3498,13 @@
         <v>3066482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>5730</v>
@@ -3531,13 +3513,13 @@
         <v>6018871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B405C5EE-CFEB-4F7B-A6FF-B66578250203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32378995-1529-41B2-A3AA-9770BF7326F7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3718,13 @@
         <v>148320</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>539</v>
@@ -3751,13 +3733,13 @@
         <v>297254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>743</v>
@@ -3766,13 +3748,13 @@
         <v>445574</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3769,13 @@
         <v>393314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>888</v>
@@ -3802,13 +3784,13 @@
         <v>538699</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1375</v>
@@ -3817,13 +3799,13 @@
         <v>932012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3873,13 @@
         <v>349897</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>418</v>
@@ -3906,13 +3888,13 @@
         <v>256593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>791</v>
@@ -3921,13 +3903,13 @@
         <v>606490</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,28 +3924,28 @@
         <v>1812125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>2503</v>
       </c>
       <c r="I8" s="7">
-        <v>1992927</v>
+        <v>1992928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>4122</v>
@@ -3972,13 +3954,13 @@
         <v>3805053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +3987,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4034,7 +4016,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4046,13 +4028,13 @@
         <v>101269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -4061,13 +4043,13 @@
         <v>109212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>275</v>
@@ -4076,13 +4058,13 @@
         <v>210481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4079,13 @@
         <v>571770</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>838</v>
@@ -4112,13 +4094,13 @@
         <v>604674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1410</v>
@@ -4127,13 +4109,13 @@
         <v>1176445</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4183,13 @@
         <v>599485</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>1123</v>
@@ -4216,13 +4198,13 @@
         <v>663059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1809</v>
@@ -4231,13 +4213,13 @@
         <v>1262544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,16 +4231,16 @@
         <v>2678</v>
       </c>
       <c r="D14" s="7">
-        <v>2777210</v>
+        <v>2777209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4229</v>
@@ -4267,28 +4249,28 @@
         <v>3136301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>6907</v>
       </c>
       <c r="N14" s="7">
-        <v>5913511</v>
+        <v>5913510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4282,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4312,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4344,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF104BB-C1C8-4CB7-8E67-3E24F1FE4091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8367449-70CB-4FBE-B9E4-D79C82718688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6D374D2-03C1-4D4F-A1E9-BE6B9B9C61D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E905A08-D453-4FF8-A654-5A0E796F21B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,7 +77,7 @@
     <t>9,66%</t>
   </si>
   <si>
-    <t>8,02%</t>
+    <t>8,04%</t>
   </si>
   <si>
     <t>11,73%</t>
@@ -86,19 +86,19 @@
     <t>14,91%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>88,27%</t>
   </si>
   <si>
-    <t>91,98%</t>
+    <t>91,96%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,55 @@
     <t>5,4%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>5,56%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>94,44%</t>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -191,271 +197,277 @@
     <t>8,63%</t>
   </si>
   <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>95,33%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>8,28%</t>
@@ -464,346 +476,334 @@
     <t>7,32%</t>
   </si>
   <si>
-    <t>9,35%</t>
+    <t>9,31%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>17,54%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>12,04%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
   </si>
   <si>
     <t>85,55%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
   </si>
   <si>
     <t>88,59%</t>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73297224-FACB-4830-BA4B-708526892C1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E449AF-BBB9-41B7-9479-3D7386D71FD5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1653,10 +1653,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,16 +1668,16 @@
         <v>1565</v>
       </c>
       <c r="D8" s="7">
-        <v>1602012</v>
+        <v>1602013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1496</v>
@@ -1686,13 +1686,13 @@
         <v>1524596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3061</v>
@@ -1701,13 +1701,13 @@
         <v>3126608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1775,13 @@
         <v>47605</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -1790,13 +1790,13 @@
         <v>36986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -1805,13 +1805,13 @@
         <v>84591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1826,13 @@
         <v>503803</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>415</v>
@@ -1841,13 +1841,13 @@
         <v>439426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>898</v>
@@ -1856,13 +1856,13 @@
         <v>943229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1930,13 @@
         <v>238649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>284</v>
@@ -1945,13 +1945,13 @@
         <v>296132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>511</v>
@@ -1960,13 +1960,13 @@
         <v>534781</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,16 +1978,16 @@
         <v>2987</v>
       </c>
       <c r="D14" s="7">
-        <v>3037895</v>
+        <v>3037894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3013</v>
@@ -1996,13 +1996,13 @@
         <v>3083066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6000</v>
@@ -2011,13 +2011,13 @@
         <v>6120960</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2131244F-33CB-4A44-BF48-970D61856767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E706314-C77B-4F16-BF0F-3AB45FDB80CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2216,13 +2216,13 @@
         <v>104342</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -2231,13 +2231,13 @@
         <v>218922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>300</v>
@@ -2246,13 +2246,13 @@
         <v>323264</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2267,13 @@
         <v>870301</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1043</v>
@@ -2282,13 +2282,13 @@
         <v>1118874</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1855</v>
@@ -2297,13 +2297,13 @@
         <v>1989176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2371,13 @@
         <v>120692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -2386,13 +2386,13 @@
         <v>81277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -2401,13 +2401,13 @@
         <v>201969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2422,13 @@
         <v>1843265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1563</v>
@@ -2437,13 +2437,13 @@
         <v>1676526</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3310</v>
@@ -2452,13 +2452,13 @@
         <v>3519791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2514,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2526,13 +2526,13 @@
         <v>57980</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2541,13 +2541,13 @@
         <v>50777</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -2556,13 +2556,13 @@
         <v>108758</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2577,13 @@
         <v>423201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>367</v>
@@ -2592,13 +2592,13 @@
         <v>407854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>752</v>
@@ -2607,13 +2607,13 @@
         <v>831054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2681,13 @@
         <v>283015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>321</v>
@@ -2696,13 +2696,13 @@
         <v>350977</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>579</v>
@@ -2711,13 +2711,13 @@
         <v>633991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2732,13 @@
         <v>3136767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>2973</v>
@@ -2747,13 +2747,13 @@
         <v>3203253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>5917</v>
@@ -2762,13 +2762,13 @@
         <v>6340021</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880E8D34-8FC2-4947-96E1-8221824A46D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D75F7C-17B1-4918-8741-444DF215E663}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2967,13 @@
         <v>126521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>171</v>
@@ -2982,13 +2982,13 @@
         <v>202789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>302</v>
@@ -2997,13 +2997,13 @@
         <v>329310</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3018,13 @@
         <v>627826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>721</v>
@@ -3033,13 +3033,13 @@
         <v>791871</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1352</v>
@@ -3048,13 +3048,13 @@
         <v>1419697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3122,13 @@
         <v>201687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3137,13 +3137,13 @@
         <v>192554</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>359</v>
@@ -3152,13 +3152,13 @@
         <v>394241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3173,13 @@
         <v>1874698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>1736</v>
@@ -3188,13 +3188,13 @@
         <v>1795746</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3501</v>
@@ -3203,13 +3203,13 @@
         <v>3670444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3265,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3277,13 +3277,13 @@
         <v>97021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -3292,13 +3292,13 @@
         <v>70275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -3307,13 +3307,13 @@
         <v>167296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3328,13 @@
         <v>449865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>462</v>
@@ -3343,13 +3343,13 @@
         <v>478865</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>877</v>
@@ -3358,13 +3358,13 @@
         <v>928730</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3432,13 @@
         <v>425229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>407</v>
@@ -3447,13 +3447,13 @@
         <v>465618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>811</v>
@@ -3462,13 +3462,13 @@
         <v>890847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3483,13 @@
         <v>2952389</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2919</v>
@@ -3498,13 +3498,13 @@
         <v>3066482</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>5730</v>
@@ -3513,13 +3513,13 @@
         <v>6018871</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32378995-1529-41B2-A3AA-9770BF7326F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BF25BB-CBC4-42BE-B963-E552239558F6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3718,13 @@
         <v>148320</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>539</v>
@@ -3733,13 +3733,13 @@
         <v>297254</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>743</v>
@@ -3748,13 +3748,13 @@
         <v>445574</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3769,13 @@
         <v>393314</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>888</v>
@@ -3784,13 +3784,13 @@
         <v>538699</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1375</v>
@@ -3799,13 +3799,13 @@
         <v>932012</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3873,13 @@
         <v>349897</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>418</v>
@@ -3888,13 +3888,13 @@
         <v>256593</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>791</v>
@@ -3903,13 +3903,13 @@
         <v>606490</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3924,13 @@
         <v>1812125</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>2503</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8367449-70CB-4FBE-B9E4-D79C82718688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1AEB86A-4AB6-4D70-A762-7F75D7419B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E905A08-D453-4FF8-A654-5A0E796F21B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF53405A-8DFB-45ED-BBB6-978641AD74BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>9,66%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>90,34%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>5,4%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,406 +311,430 @@
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,93%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
   </si>
   <si>
     <t>87,11%</t>
   </si>
   <si>
-    <t>87,91%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
@@ -719,10 +743,10 @@
     <t>27,38%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>35,56%</t>
@@ -731,31 +755,31 @@
     <t>32,88%</t>
   </si>
   <si>
-    <t>38,29%</t>
+    <t>38,02%</t>
   </si>
   <si>
     <t>32,34%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>64,44%</t>
   </si>
   <si>
-    <t>61,71%</t>
+    <t>61,98%</t>
   </si>
   <si>
     <t>67,12%</t>
@@ -764,25 +788,22 @@
     <t>67,66%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
   </si>
   <si>
     <t>16,18%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>12,74%</t>
@@ -791,145 +812,142 @@
     <t>13,75%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>87,26%</t>
   </si>
   <si>
-    <t>90,38%</t>
+    <t>90,67%</t>
   </si>
   <si>
     <t>86,25%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>84,82%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E449AF-BBB9-41B7-9479-3D7386D71FD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C940C86-DE61-48C0-ABF0-DC6FE8430B94}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1668,7 +1686,7 @@
         <v>1565</v>
       </c>
       <c r="D8" s="7">
-        <v>1602013</v>
+        <v>1602012</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1737,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1978,7 +1996,7 @@
         <v>2987</v>
       </c>
       <c r="D14" s="7">
-        <v>3037894</v>
+        <v>3037895</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2008,7 +2026,7 @@
         <v>6000</v>
       </c>
       <c r="N14" s="7">
-        <v>6120960</v>
+        <v>6120959</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2029,7 +2047,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2077,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E706314-C77B-4F16-BF0F-3AB45FDB80CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B24D67-7B3C-46D9-9DA0-3B6B44253BCE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2717,7 +2735,7 @@
         <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2750,13 @@
         <v>3136767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2973</v>
@@ -2747,13 +2765,13 @@
         <v>3203253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5917</v>
@@ -2762,13 +2780,13 @@
         <v>6340021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D75F7C-17B1-4918-8741-444DF215E663}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB654FB4-CB9E-4650-B6B8-CF764E934AD7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2985,13 @@
         <v>126521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>171</v>
@@ -2982,13 +3000,13 @@
         <v>202789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>302</v>
@@ -2997,13 +3015,13 @@
         <v>329310</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3036,13 @@
         <v>627826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>721</v>
@@ -3033,13 +3051,13 @@
         <v>791871</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1352</v>
@@ -3048,13 +3066,13 @@
         <v>1419697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3140,13 @@
         <v>201687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3137,13 +3155,13 @@
         <v>192554</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>359</v>
@@ -3152,13 +3170,13 @@
         <v>394241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3191,13 @@
         <v>1874698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>1736</v>
@@ -3188,13 +3206,13 @@
         <v>1795746</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3501</v>
@@ -3203,13 +3221,13 @@
         <v>3670444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3295,13 @@
         <v>97021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -3292,13 +3310,13 @@
         <v>70275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -3307,13 +3325,13 @@
         <v>167296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3346,13 @@
         <v>449865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>462</v>
@@ -3343,13 +3361,13 @@
         <v>478865</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>877</v>
@@ -3358,13 +3376,13 @@
         <v>928730</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3450,13 @@
         <v>425229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>407</v>
@@ -3447,13 +3465,13 @@
         <v>465618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>811</v>
@@ -3462,13 +3480,13 @@
         <v>890847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3501,13 @@
         <v>2952389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2919</v>
@@ -3498,13 +3516,13 @@
         <v>3066482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>5730</v>
@@ -3513,13 +3531,13 @@
         <v>6018871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BF25BB-CBC4-42BE-B963-E552239558F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8501D1-CD85-4A4B-92B9-2381F7A8C075}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3736,13 @@
         <v>148320</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>539</v>
@@ -3733,13 +3751,13 @@
         <v>297254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>743</v>
@@ -3748,13 +3766,13 @@
         <v>445574</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3787,13 @@
         <v>393314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>888</v>
@@ -3784,13 +3802,13 @@
         <v>538699</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1375</v>
@@ -3799,13 +3817,13 @@
         <v>932012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3891,13 @@
         <v>349897</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>418</v>
@@ -3888,13 +3906,13 @@
         <v>256593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>791</v>
@@ -3903,13 +3921,13 @@
         <v>606490</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,28 +3942,28 @@
         <v>1812125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>2503</v>
       </c>
       <c r="I8" s="7">
-        <v>1992928</v>
+        <v>1992927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>4122</v>
@@ -3954,13 +3972,13 @@
         <v>3805053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +4005,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4028,13 +4046,13 @@
         <v>101269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -4043,13 +4061,13 @@
         <v>109212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>275</v>
@@ -4058,13 +4076,13 @@
         <v>210481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4097,13 @@
         <v>571770</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>838</v>
@@ -4094,13 +4112,13 @@
         <v>604674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1410</v>
@@ -4109,13 +4127,13 @@
         <v>1176445</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4201,13 @@
         <v>599485</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>1123</v>
@@ -4198,13 +4216,13 @@
         <v>663059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>1809</v>
@@ -4213,13 +4231,13 @@
         <v>1262544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,16 +4249,16 @@
         <v>2678</v>
       </c>
       <c r="D14" s="7">
-        <v>2777209</v>
+        <v>2777210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>4229</v>
@@ -4249,28 +4267,28 @@
         <v>3136301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>6907</v>
       </c>
       <c r="N14" s="7">
-        <v>5913510</v>
+        <v>5913511</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4300,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4330,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1AEB86A-4AB6-4D70-A762-7F75D7419B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{113E7C20-BC42-472E-969E-F36B0D284C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF53405A-8DFB-45ED-BBB6-978641AD74BE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3BA4A54-4A59-4919-8D82-037D15EFB685}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -740,214 +740,202 @@
     <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
   </si>
   <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C940C86-DE61-48C0-ABF0-DC6FE8430B94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF389226-B2F5-405A-B71D-83765BE6681B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1561,7 +1549,7 @@
         <v>2041</v>
       </c>
       <c r="N5" s="7">
-        <v>2051124</v>
+        <v>2051123</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1612,7 +1600,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1686,7 +1674,7 @@
         <v>1565</v>
       </c>
       <c r="D8" s="7">
-        <v>1602012</v>
+        <v>1602013</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1737,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1996,7 +1984,7 @@
         <v>2987</v>
       </c>
       <c r="D14" s="7">
-        <v>3037895</v>
+        <v>3037894</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2011,7 +1999,7 @@
         <v>3013</v>
       </c>
       <c r="I14" s="7">
-        <v>3083066</v>
+        <v>3083065</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2026,7 +2014,7 @@
         <v>6000</v>
       </c>
       <c r="N14" s="7">
-        <v>6120959</v>
+        <v>6120960</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2047,7 +2035,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2062,7 +2050,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2077,7 +2065,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B24D67-7B3C-46D9-9DA0-3B6B44253BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9F1212-E710-4CCD-8267-2B22E5F4D644}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2297,7 +2285,7 @@
         <v>1043</v>
       </c>
       <c r="I5" s="7">
-        <v>1118874</v>
+        <v>1118875</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2348,7 +2336,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2622,7 +2610,7 @@
         <v>752</v>
       </c>
       <c r="N11" s="7">
-        <v>831054</v>
+        <v>831055</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2673,7 +2661,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB654FB4-CB9E-4650-B6B8-CF764E934AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE509A6F-085E-4E7D-A426-78BC45DADA37}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3373,7 +3361,7 @@
         <v>877</v>
       </c>
       <c r="N11" s="7">
-        <v>928730</v>
+        <v>928731</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>211</v>
@@ -3424,7 +3412,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8501D1-CD85-4A4B-92B9-2381F7A8C075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274D122-6036-4E0C-A7C0-E5F3907B5E1F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3721,7 @@
         <v>204</v>
       </c>
       <c r="D4" s="7">
-        <v>148320</v>
+        <v>141064</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3748,7 +3736,7 @@
         <v>539</v>
       </c>
       <c r="I4" s="7">
-        <v>297254</v>
+        <v>267797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3763,7 +3751,7 @@
         <v>743</v>
       </c>
       <c r="N4" s="7">
-        <v>445574</v>
+        <v>408861</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3784,7 +3772,7 @@
         <v>487</v>
       </c>
       <c r="D5" s="7">
-        <v>393314</v>
+        <v>373874</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3799,7 +3787,7 @@
         <v>888</v>
       </c>
       <c r="I5" s="7">
-        <v>538699</v>
+        <v>487711</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3814,7 +3802,7 @@
         <v>1375</v>
       </c>
       <c r="N5" s="7">
-        <v>932012</v>
+        <v>861585</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3835,7 +3823,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3838,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3853,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,7 +3876,7 @@
         <v>373</v>
       </c>
       <c r="D7" s="7">
-        <v>349897</v>
+        <v>338199</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3903,25 +3891,25 @@
         <v>418</v>
       </c>
       <c r="I7" s="7">
-        <v>256593</v>
+        <v>232189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>791</v>
       </c>
       <c r="N7" s="7">
-        <v>606490</v>
+        <v>570388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>257</v>
@@ -3939,7 +3927,7 @@
         <v>1619</v>
       </c>
       <c r="D8" s="7">
-        <v>1812125</v>
+        <v>1952128</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>259</v>
@@ -3954,25 +3942,25 @@
         <v>2503</v>
       </c>
       <c r="I8" s="7">
-        <v>1992927</v>
+        <v>2005634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>4122</v>
       </c>
       <c r="N8" s="7">
-        <v>3805053</v>
+        <v>3957762</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>265</v>
@@ -3990,7 +3978,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +3993,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4008,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,7 +4031,7 @@
         <v>109</v>
       </c>
       <c r="D10" s="7">
-        <v>101269</v>
+        <v>96699</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>267</v>
@@ -4058,7 +4046,7 @@
         <v>166</v>
       </c>
       <c r="I10" s="7">
-        <v>109212</v>
+        <v>99838</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>270</v>
@@ -4073,7 +4061,7 @@
         <v>275</v>
       </c>
       <c r="N10" s="7">
-        <v>210481</v>
+        <v>196537</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>273</v>
@@ -4094,7 +4082,7 @@
         <v>572</v>
       </c>
       <c r="D11" s="7">
-        <v>571770</v>
+        <v>549924</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>276</v>
@@ -4109,7 +4097,7 @@
         <v>838</v>
       </c>
       <c r="I11" s="7">
-        <v>604674</v>
+        <v>560625</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>279</v>
@@ -4124,7 +4112,7 @@
         <v>1410</v>
       </c>
       <c r="N11" s="7">
-        <v>1176445</v>
+        <v>1110549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>282</v>
@@ -4145,7 +4133,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4148,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4163,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,7 +4186,7 @@
         <v>686</v>
       </c>
       <c r="D13" s="7">
-        <v>599485</v>
+        <v>575962</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
@@ -4213,31 +4201,31 @@
         <v>1123</v>
       </c>
       <c r="I13" s="7">
-        <v>663059</v>
+        <v>599825</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>1809</v>
       </c>
       <c r="N13" s="7">
-        <v>1262544</v>
+        <v>1175786</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,46 +4237,46 @@
         <v>2678</v>
       </c>
       <c r="D14" s="7">
-        <v>2777210</v>
+        <v>2875927</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>4229</v>
       </c>
       <c r="I14" s="7">
-        <v>3136301</v>
+        <v>3053969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>6907</v>
       </c>
       <c r="N14" s="7">
-        <v>5913511</v>
+        <v>5929897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4288,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4303,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4318,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
